--- a/medicine/Enfance/André_Noël_(journaliste)/André_Noël_(journaliste).xlsx
+++ b/medicine/Enfance/André_Noël_(journaliste)/André_Noël_(journaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_No%C3%ABl_(journaliste)</t>
+          <t>André_Noël_(journaliste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Noël, né à Montréal en 1953, est un journaliste québécois ainsi qu'un enquêteur et un auteur de romans et d'essais. 
 Il a étudié en géographie à l'Université de Montréal et en journalisme à Strasbourg. Après avoir été rédacteur à la Presse canadienne, il est entré à La Presse en 1984. Il a toujours travaillé dans la section des informations générales, où il a mené des enquêtes très variées.
-Alors qu'il était journaliste à La Presse, André Noël s'est fait connaître par ses enquêtes sur des dossiers chauds. Trois fois récipiendaire du prix Judith-Jasmin, il a remporté le prix Michener du Gouverneur général[1] et le Concours canadien de journalisme[2]. Il a aussi écrit des essais et des romans[3]. Le professeur et chroniqueur Léo-Paul Lauzon le considérait en 2013 comme le meilleur journaliste d'enquête au Québec[4].
-En 2012, il quitte le journal La Presse et devient enquêteur pour la commission Charbonneau[5].
-Depuis 2018, il publie sur Pivot, un média en ligne québécois[6].
+Alors qu'il était journaliste à La Presse, André Noël s'est fait connaître par ses enquêtes sur des dossiers chauds. Trois fois récipiendaire du prix Judith-Jasmin, il a remporté le prix Michener du Gouverneur général et le Concours canadien de journalisme. Il a aussi écrit des essais et des romans. Le professeur et chroniqueur Léo-Paul Lauzon le considérait en 2013 comme le meilleur journaliste d'enquête au Québec.
+En 2012, il quitte le journal La Presse et devient enquêteur pour la commission Charbonneau.
+Depuis 2018, il publie sur Pivot, un média en ligne québécois.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_No%C3%ABl_(journaliste)</t>
+          <t>André_Noël_(journaliste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Co-auteur avec André Cédilot de quelques ouvrages sur le milieu criminel au Québec :
 André Cédilot et André Noël, Gangsters et mafiosi : cent ans de crime organisé au Québec, Montréal, Les Éditions de l'Homme, 2017, 183 p. (ISBN 978-2-7619-4661-2, présentation en ligne)
 André Cédilot et André Noël, Mafia inc. : grandeur et misère du clan sicilien au Québec, Montréal, Les Éditions de l'Homme, 2012, 462 p. (ISBN 978-2-7619-3311-7, présentation en ligne)
-Préfacier de l'essai intitulé "Mégantic : une tragédie annoncée", d'Anne-Marie Saint-Cerny paru aux éditions Écosociété, 338 p, 2018,  (ISBN 978-2-89719-422-2)[7]</t>
+Préfacier de l'essai intitulé "Mégantic : une tragédie annoncée", d'Anne-Marie Saint-Cerny paru aux éditions Écosociété, 338 p, 2018,  (ISBN 978-2-89719-422-2)</t>
         </is>
       </c>
     </row>
